--- a/data/trans_orig/P59-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709C60B5-9DF1-4D27-89CB-D4B84DDE55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E15DB0-7BBA-4743-A363-3880001D6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{565F54EF-7748-42F9-9F43-CD426D9B7AD6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1121343A-9FD4-45C7-8DAD-4F9514C3E808}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="617">
   <si>
     <t>Población según su estado civil en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>Divorciado/a</t>
@@ -107,1831 +107,1789 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Separado/a</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>Casado/a</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Separado/a</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2015 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Soltero/a</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>Casado/a</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>49,1%</t>
   </si>
   <si>
     <t>50,79%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
   </si>
   <si>
     <t>50,99%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30475EEC-20BB-4658-98B4-811B33A0E201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B284F01C-147C-46D4-9EED-D984A3AE556B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2793,10 +2751,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2805,13 +2763,13 @@
         <v>76667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2784,13 @@
         <v>25054</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2841,13 +2799,13 @@
         <v>37288</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -2856,13 +2814,13 @@
         <v>62341</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2835,13 @@
         <v>26597</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -3089,7 +3047,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3098,13 +3056,13 @@
         <v>11362</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3113,13 +3071,13 @@
         <v>16865</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3092,13 @@
         <v>4266</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3149,10 +3107,10 @@
         <v>12189</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>118</v>
@@ -3167,10 +3125,10 @@
         <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3143,13 @@
         <v>4360</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3200,13 +3158,13 @@
         <v>15234</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -3215,13 +3173,13 @@
         <v>19593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3194,13 @@
         <v>217366</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3251,13 +3209,13 @@
         <v>188256</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>393</v>
@@ -3266,13 +3224,13 @@
         <v>405621</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3245,13 @@
         <v>319914</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -3302,13 +3260,13 @@
         <v>249372</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>536</v>
@@ -3317,13 +3275,13 @@
         <v>569286</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3349,13 @@
         <v>112318</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
@@ -3406,28 +3364,28 @@
         <v>400874</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>494</v>
       </c>
       <c r="N22" s="7">
-        <v>513191</v>
+        <v>513192</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3400,13 @@
         <v>38468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3457,13 +3415,13 @@
         <v>64176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -3472,13 +3430,13 @@
         <v>102644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,10 +3484,10 @@
         <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3502,13 @@
         <v>1107949</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>848</v>
@@ -3559,13 +3517,13 @@
         <v>843738</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>1937</v>
@@ -3574,10 +3532,10 @@
         <v>1951687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>176</v>
@@ -3598,10 +3556,10 @@
         <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>1921</v>
@@ -3610,28 +3568,28 @@
         <v>1974617</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>3851</v>
       </c>
       <c r="N26" s="7">
-        <v>3942439</v>
+        <v>3942440</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3631,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3687,7 +3645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14958F-43F9-40D4-A8BB-E4BFA548F510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B03B64-AD15-4218-8CB6-2052C9446F13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3830,13 +3788,13 @@
         <v>91277</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>333</v>
@@ -3845,13 +3803,13 @@
         <v>354841</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>418</v>
@@ -3860,13 +3818,13 @@
         <v>446118</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3839,13 @@
         <v>15357</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3896,13 +3854,13 @@
         <v>24267</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3914,10 +3872,10 @@
         <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3890,13 @@
         <v>14054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3947,13 +3905,13 @@
         <v>24909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -3962,13 +3920,13 @@
         <v>38964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3941,13 @@
         <v>192544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3998,13 +3956,13 @@
         <v>109904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -4013,13 +3971,13 @@
         <v>302449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +3992,13 @@
         <v>660516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -4049,13 +4007,13 @@
         <v>823875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>1383</v>
@@ -4064,13 +4022,13 @@
         <v>1484391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4096,13 @@
         <v>24176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4153,13 +4111,13 @@
         <v>62527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4168,13 +4126,13 @@
         <v>86703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4147,13 @@
         <v>58075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4204,13 +4162,13 @@
         <v>75152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4219,13 +4177,13 @@
         <v>133227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4198,13 @@
         <v>35832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -4255,13 +4213,13 @@
         <v>49870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4270,13 +4228,13 @@
         <v>85701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4249,13 @@
         <v>755378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>522</v>
@@ -4306,13 +4264,13 @@
         <v>549336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>1249</v>
@@ -4321,13 +4279,13 @@
         <v>1304714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4300,13 @@
         <v>1085466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>938</v>
@@ -4357,13 +4315,13 @@
         <v>1019980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>1958</v>
@@ -4372,13 +4330,13 @@
         <v>2105445</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4404,13 @@
         <v>7254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4461,13 +4419,13 @@
         <v>7688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4476,13 +4434,13 @@
         <v>14943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4455,13 @@
         <v>10074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4512,13 +4470,13 @@
         <v>16982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4527,13 +4485,13 @@
         <v>27056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4506,13 @@
         <v>4167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4563,13 +4521,13 @@
         <v>4150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4581,10 +4539,10 @@
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4557,13 @@
         <v>194996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -4614,13 +4572,13 @@
         <v>175400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4629,13 +4587,13 @@
         <v>370396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4608,13 @@
         <v>263678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -4665,13 +4623,13 @@
         <v>254411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -4680,13 +4638,13 @@
         <v>518090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4712,13 @@
         <v>122708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>397</v>
@@ -4769,13 +4727,13 @@
         <v>425056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -4784,13 +4742,13 @@
         <v>547763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4763,13 @@
         <v>83506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
@@ -4820,13 +4778,13 @@
         <v>116401</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>178</v>
@@ -4835,13 +4793,13 @@
         <v>199907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4814,13 @@
         <v>54052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -4871,13 +4829,13 @@
         <v>78929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -4886,13 +4844,13 @@
         <v>132982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,28 +4865,28 @@
         <v>1142918</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
       </c>
       <c r="I25" s="7">
-        <v>834640</v>
+        <v>834639</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>1877</v>
@@ -4937,13 +4895,13 @@
         <v>1977558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4916,13 @@
         <v>2009660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>1935</v>
@@ -4973,13 +4931,13 @@
         <v>2098266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>3802</v>
@@ -4988,13 +4946,13 @@
         <v>4107926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +4979,7 @@
         <v>3293</v>
       </c>
       <c r="I27" s="7">
-        <v>3553292</v>
+        <v>3553291</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5050,7 +5008,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699D79B-B75F-4280-90ED-F9EFD06ECD9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968FF28F-DFA1-4211-9BA5-0FDFBC73AFFD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5193,13 +5151,13 @@
         <v>98607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
@@ -5208,13 +5166,13 @@
         <v>300154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>357</v>
@@ -5223,13 +5181,13 @@
         <v>398761</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5202,13 @@
         <v>12705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -5259,13 +5217,13 @@
         <v>26831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5274,13 +5232,13 @@
         <v>39536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5253,13 @@
         <v>22077</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5310,13 +5268,13 @@
         <v>15356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -5325,13 +5283,13 @@
         <v>37434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5304,13 @@
         <v>139291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5361,13 +5319,13 @@
         <v>74928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -5376,13 +5334,13 @@
         <v>214219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5355,13 @@
         <v>481667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -5412,13 +5370,13 @@
         <v>577390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -5427,13 +5385,13 @@
         <v>1059057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5459,13 @@
         <v>31318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5516,13 +5474,13 @@
         <v>110427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5531,13 +5489,13 @@
         <v>141745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5510,13 @@
         <v>68588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>381</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -5567,13 +5525,13 @@
         <v>104615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>156</v>
@@ -5582,13 +5540,13 @@
         <v>173203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5561,13 @@
         <v>56360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>382</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -5618,13 +5576,13 @@
         <v>72153</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -5633,13 +5591,13 @@
         <v>128513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5612,13 @@
         <v>801071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -5669,13 +5627,13 @@
         <v>644446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>1399</v>
@@ -5684,13 +5642,13 @@
         <v>1445517</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5663,13 @@
         <v>1118183</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>1002</v>
@@ -5720,13 +5678,13 @@
         <v>1052488</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>2053</v>
@@ -5735,13 +5693,13 @@
         <v>2170671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5767,13 @@
         <v>13244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5824,13 +5782,13 @@
         <v>25407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5839,13 +5797,13 @@
         <v>38651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5818,13 @@
         <v>8141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5875,13 +5833,13 @@
         <v>28720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5890,13 +5848,13 @@
         <v>36861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5869,13 @@
         <v>18567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5926,13 +5884,13 @@
         <v>15769</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>38</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5941,13 +5899,13 @@
         <v>34336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5920,13 @@
         <v>214297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -5977,13 +5935,13 @@
         <v>197797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -5992,13 +5950,13 @@
         <v>412094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +5971,13 @@
         <v>292637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -6028,13 +5986,13 @@
         <v>281447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>533</v>
@@ -6043,13 +6001,13 @@
         <v>574084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6075,13 @@
         <v>143169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>360</v>
@@ -6132,13 +6090,13 @@
         <v>435988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -6147,13 +6105,13 @@
         <v>579157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6126,13 @@
         <v>89434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -6183,13 +6141,13 @@
         <v>160166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -6198,13 +6156,13 @@
         <v>249600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6177,13 @@
         <v>97004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -6234,13 +6192,13 @@
         <v>103278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>227</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -6249,13 +6207,13 @@
         <v>200283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6228,13 @@
         <v>1154659</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>914</v>
@@ -6285,13 +6243,13 @@
         <v>917171</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>2006</v>
@@ -6300,13 +6258,13 @@
         <v>2071830</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,16 +6276,16 @@
         <v>1803</v>
       </c>
       <c r="D26" s="7">
-        <v>1892486</v>
+        <v>1892487</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>1800</v>
@@ -6336,13 +6294,13 @@
         <v>1911325</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>3603</v>
@@ -6351,13 +6309,13 @@
         <v>3803812</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6327,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3376752</v>
+        <v>3376753</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6413,7 +6371,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6432,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B12796-EBFE-43EE-8F1D-F7453CA24168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA7176-00DC-44F1-A43E-941B5EECAA32}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6449,7 +6407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6556,13 +6514,13 @@
         <v>82181</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>603</v>
@@ -6571,13 +6529,13 @@
         <v>332469</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>726</v>
@@ -6586,13 +6544,13 @@
         <v>414650</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6565,13 @@
         <v>21249</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6622,13 +6580,13 @@
         <v>29400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -6637,13 +6595,13 @@
         <v>50649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6616,13 @@
         <v>14843</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -6673,13 +6631,13 @@
         <v>24474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -6688,13 +6646,13 @@
         <v>39316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6667,13 @@
         <v>118075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -6724,13 +6682,13 @@
         <v>70721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -6739,13 +6697,13 @@
         <v>188796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6718,13 @@
         <v>302490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>508</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>647</v>
@@ -6775,13 +6733,13 @@
         <v>377596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -6790,13 +6748,13 @@
         <v>680087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6822,13 @@
         <v>59250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
@@ -6879,13 +6837,13 @@
         <v>151879</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -6894,13 +6852,13 @@
         <v>211129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6873,13 @@
         <v>89664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -6930,13 +6888,13 @@
         <v>137111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
@@ -6945,13 +6903,13 @@
         <v>226776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6924,13 @@
         <v>68937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
@@ -6981,13 +6939,13 @@
         <v>82760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>377</v>
+        <v>526</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -6996,13 +6954,13 @@
         <v>151697</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>536</v>
+        <v>166</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,28 +6975,28 @@
         <v>892726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>639</v>
       </c>
       <c r="I13" s="7">
-        <v>678535</v>
+        <v>678534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
@@ -7047,13 +7005,13 @@
         <v>1571260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,28 +7026,28 @@
         <v>1049501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>1656</v>
       </c>
       <c r="I14" s="7">
-        <v>1193602</v>
+        <v>1193601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>551</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>2769</v>
@@ -7098,13 +7056,13 @@
         <v>2243102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7089,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>2243887</v>
+        <v>2243886</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7172,13 +7130,13 @@
         <v>19216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -7187,13 +7145,13 @@
         <v>31609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -7202,13 +7160,13 @@
         <v>50825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7181,13 @@
         <v>23136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7238,13 +7196,13 @@
         <v>43308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7253,13 +7211,13 @@
         <v>66444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7232,13 @@
         <v>9439</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7289,13 +7247,13 @@
         <v>23516</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>561</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -7304,13 +7262,13 @@
         <v>32955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>574</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7283,13 @@
         <v>244712</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7340,13 +7298,13 @@
         <v>259112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
@@ -7355,13 +7313,13 @@
         <v>503823</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7334,13 @@
         <v>374103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
@@ -7391,13 +7349,13 @@
         <v>353395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>977</v>
@@ -7406,13 +7364,13 @@
         <v>727498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7438,13 @@
         <v>160647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>942</v>
@@ -7495,13 +7453,13 @@
         <v>515958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>1168</v>
@@ -7510,13 +7468,13 @@
         <v>676605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7489,13 @@
         <v>134049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>602</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>604</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>320</v>
@@ -7546,13 +7504,13 @@
         <v>209819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>469</v>
@@ -7561,13 +7519,13 @@
         <v>343869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7540,13 @@
         <v>93218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>595</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>609</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
@@ -7597,13 +7555,13 @@
         <v>130750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>236</v>
+        <v>596</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="M24" s="7">
         <v>306</v>
@@ -7612,13 +7570,13 @@
         <v>223968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7591,13 @@
         <v>1255512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
@@ -7648,13 +7606,13 @@
         <v>1008367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>1958</v>
@@ -7663,13 +7621,13 @@
         <v>2263879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7642,13 @@
         <v>1726094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>2857</v>
@@ -7699,13 +7657,13 @@
         <v>1924593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>4789</v>
@@ -7714,13 +7672,13 @@
         <v>3650687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,7 +7734,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E15DB0-7BBA-4743-A363-3880001D6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7529337E-2321-4BDB-B1A1-8669BF96DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1121343A-9FD4-45C7-8DAD-4F9514C3E808}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9C6EAE-1B99-45E9-84F2-9AF237134C63}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
   <si>
     <t>Población según su estado civil en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1801 +77,1837 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>Divorciado/a</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>Separado/a</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>Casado/a</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>Divorciado/a</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Separado/a</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>Soltero/a</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>Casado/a</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>53,84%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
   </si>
   <si>
     <t>50,79%</t>
@@ -2301,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B284F01C-147C-46D4-9EED-D984A3AE556B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FF77CE-AC29-4D4E-87AE-6E658D1CA03B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2527,13 +2563,13 @@
         <v>19028</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -2542,13 +2578,13 @@
         <v>35388</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -2557,19 +2593,19 @@
         <v>54416</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>201</v>
@@ -2578,13 +2614,13 @@
         <v>205849</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2593,13 +2629,13 @@
         <v>126833</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -2608,19 +2644,19 @@
         <v>332683</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>727</v>
@@ -2629,13 +2665,13 @@
         <v>717935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>792</v>
@@ -2644,13 +2680,13 @@
         <v>798293</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>1519</v>
@@ -2659,13 +2695,13 @@
         <v>1516229</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2716,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2695,13 +2731,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2710,18 +2746,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2733,13 +2769,13 @@
         <v>27054</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2748,13 +2784,13 @@
         <v>49613</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2763,7 +2799,7 @@
         <v>76667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>26</v>
@@ -2835,13 +2871,13 @@
         <v>26597</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -2850,13 +2886,13 @@
         <v>45171</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2865,19 +2901,19 @@
         <v>71769</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>678</v>
@@ -2886,13 +2922,13 @@
         <v>684734</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>537</v>
@@ -2901,13 +2937,13 @@
         <v>528649</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1215</v>
@@ -2916,34 +2952,34 @@
         <v>1213383</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>900</v>
       </c>
       <c r="D14" s="7">
-        <v>929973</v>
+        <v>929974</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -2952,13 +2988,13 @@
         <v>926951</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>1796</v>
@@ -2967,13 +3003,13 @@
         <v>1856925</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,16 +3021,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3003,13 +3039,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3018,18 +3054,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3041,13 +3077,13 @@
         <v>5503</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3098,7 +3134,7 @@
         <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3107,13 +3143,13 @@
         <v>12189</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3122,13 +3158,13 @@
         <v>16454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3179,13 @@
         <v>4360</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3158,13 +3194,13 @@
         <v>15234</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -3173,10 +3209,10 @@
         <v>19593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>127</v>
@@ -3185,7 +3221,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>210</v>
@@ -3236,7 +3272,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>303</v>
@@ -3266,7 +3302,7 @@
         <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>536</v>
@@ -3275,13 +3311,13 @@
         <v>569286</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3332,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3311,13 +3347,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3326,13 +3362,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,10 +3385,10 @@
         <v>112318</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>147</v>
@@ -3403,10 +3439,10 @@
         <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3418,10 +3454,10 @@
         <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -3430,13 +3466,13 @@
         <v>102644</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3487,13 @@
         <v>49985</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -3466,13 +3502,13 @@
         <v>95793</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -3481,19 +3517,19 @@
         <v>145779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1089</v>
@@ -3502,13 +3538,13 @@
         <v>1107949</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>848</v>
@@ -3517,13 +3553,13 @@
         <v>843738</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>1937</v>
@@ -3532,19 +3568,19 @@
         <v>1951687</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1930</v>
@@ -3553,10 +3589,10 @@
         <v>1967823</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>178</v>
@@ -3601,16 +3637,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3619,13 +3655,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3634,13 +3670,13 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B03B64-AD15-4218-8CB6-2052C9446F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33810444-1555-458A-BEC4-F2F1351A7F29}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,13 +3875,13 @@
         <v>15357</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3854,13 +3890,13 @@
         <v>24267</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3869,13 +3905,13 @@
         <v>39624</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3926,13 @@
         <v>14054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3905,13 +3941,13 @@
         <v>24909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -3920,19 +3956,19 @@
         <v>38964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>183</v>
@@ -3941,13 +3977,13 @@
         <v>192544</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3956,13 +3992,13 @@
         <v>109904</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -3971,19 +4007,19 @@
         <v>302449</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>613</v>
@@ -3992,13 +4028,13 @@
         <v>660516</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -4007,13 +4043,13 @@
         <v>823875</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>1383</v>
@@ -4022,13 +4058,13 @@
         <v>1484391</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4079,13 @@
         <v>973749</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -4058,13 +4094,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -4073,18 +4109,18 @@
         <v>2311546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4096,13 +4132,13 @@
         <v>24176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4111,10 +4147,10 @@
         <v>62527</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>228</v>
@@ -4129,10 +4165,10 @@
         <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4183,13 @@
         <v>58075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4162,13 +4198,13 @@
         <v>75152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4177,13 +4213,13 @@
         <v>133227</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4234,13 @@
         <v>35832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -4213,13 +4249,13 @@
         <v>49870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4228,19 +4264,19 @@
         <v>85701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>727</v>
@@ -4249,13 +4285,13 @@
         <v>755378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>522</v>
@@ -4264,13 +4300,13 @@
         <v>549336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>1249</v>
@@ -4279,19 +4315,19 @@
         <v>1304714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1020</v>
@@ -4300,13 +4336,13 @@
         <v>1085466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>938</v>
@@ -4315,13 +4351,13 @@
         <v>1019980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>1958</v>
@@ -4330,13 +4366,13 @@
         <v>2105445</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4387,13 @@
         <v>1958926</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
@@ -4366,13 +4402,13 @@
         <v>1756864</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3485</v>
@@ -4381,18 +4417,18 @@
         <v>3715790</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4404,13 +4440,13 @@
         <v>7254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4419,7 +4455,7 @@
         <v>7688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>265</v>
@@ -4440,7 +4476,7 @@
         <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4491,7 @@
         <v>10074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>270</v>
@@ -4473,10 +4509,10 @@
         <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4485,13 +4521,13 @@
         <v>27056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4542,13 @@
         <v>4167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4521,13 +4557,13 @@
         <v>4150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4539,16 +4575,16 @@
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>185</v>
@@ -4557,13 +4593,13 @@
         <v>194996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -4572,13 +4608,13 @@
         <v>175400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4587,19 +4623,19 @@
         <v>370396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>234</v>
@@ -4608,13 +4644,13 @@
         <v>263678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -4623,13 +4659,13 @@
         <v>254411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -4638,13 +4674,13 @@
         <v>518090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4695,13 @@
         <v>480170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4674,13 +4710,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4689,13 +4725,13 @@
         <v>938801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4748,13 @@
         <v>122708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>397</v>
@@ -4727,13 +4763,13 @@
         <v>425056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -4742,13 +4778,13 @@
         <v>547763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4799,13 @@
         <v>83506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
@@ -4778,10 +4814,10 @@
         <v>116401</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>310</v>
@@ -4796,10 +4832,10 @@
         <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4850,13 @@
         <v>54052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -4829,13 +4865,13 @@
         <v>78929</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -4844,19 +4880,19 @@
         <v>132982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1095</v>
@@ -4877,7 +4913,7 @@
         <v>782</v>
       </c>
       <c r="I25" s="7">
-        <v>834639</v>
+        <v>834640</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>321</v>
@@ -4907,7 +4943,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1867</v>
@@ -4967,28 +5003,28 @@
         <v>3412844</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3293</v>
       </c>
       <c r="I27" s="7">
-        <v>3553291</v>
+        <v>3553292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6488</v>
@@ -4997,13 +5033,13 @@
         <v>6966136</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968FF28F-DFA1-4211-9BA5-0FDFBC73AFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A59AC0E-45E3-44AC-95EF-30A35D591FB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,13 +5238,13 @@
         <v>12705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -5217,13 +5253,13 @@
         <v>26831</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5232,13 +5268,13 @@
         <v>39536</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5289,13 @@
         <v>22077</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5268,13 +5304,13 @@
         <v>15356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -5283,19 +5319,19 @@
         <v>37434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>135</v>
@@ -5304,13 +5340,13 @@
         <v>139291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5319,13 +5355,13 @@
         <v>74928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -5334,19 +5370,19 @@
         <v>214219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>486</v>
@@ -5355,13 +5391,13 @@
         <v>481667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -5370,13 +5406,13 @@
         <v>577390</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -5385,13 +5421,13 @@
         <v>1059057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5442,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5421,13 +5457,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1654</v>
@@ -5436,18 +5472,18 @@
         <v>1749007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5459,13 +5495,13 @@
         <v>31318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5474,13 +5510,13 @@
         <v>110427</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5489,13 +5525,13 @@
         <v>141745</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5546,13 @@
         <v>68588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -5525,7 +5561,7 @@
         <v>104615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>379</v>
@@ -5540,13 +5576,13 @@
         <v>173203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5597,13 @@
         <v>56360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -5594,16 +5630,16 @@
         <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>756</v>
@@ -5612,13 +5648,13 @@
         <v>801071</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -5627,13 +5663,13 @@
         <v>644446</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>1399</v>
@@ -5642,19 +5678,19 @@
         <v>1445517</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1051</v>
@@ -5663,13 +5699,13 @@
         <v>1118183</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>1002</v>
@@ -5678,13 +5714,13 @@
         <v>1052488</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>2053</v>
@@ -5693,13 +5729,13 @@
         <v>2170671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5750,13 @@
         <v>2075520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1904</v>
@@ -5729,13 +5765,13 @@
         <v>1984128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3855</v>
@@ -5744,18 +5780,18 @@
         <v>4059648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5767,13 +5803,13 @@
         <v>13244</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5782,13 +5818,13 @@
         <v>25407</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5797,13 +5833,13 @@
         <v>38651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5854,13 @@
         <v>8141</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5839,7 +5875,7 @@
         <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5848,13 +5884,13 @@
         <v>36861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5905,13 @@
         <v>18567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5887,10 +5923,10 @@
         <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5899,19 +5935,19 @@
         <v>34336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>201</v>
@@ -5920,13 +5956,13 @@
         <v>214297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -5935,13 +5971,13 @@
         <v>197797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -5950,19 +5986,19 @@
         <v>412094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>266</v>
@@ -5971,13 +6007,13 @@
         <v>292637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -5986,13 +6022,13 @@
         <v>281447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>533</v>
@@ -6022,13 +6058,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -6037,13 +6073,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -6052,13 +6088,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,10 +6114,10 @@
         <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>360</v>
@@ -6090,13 +6126,13 @@
         <v>435988</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -6105,13 +6141,13 @@
         <v>579157</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6162,13 @@
         <v>89434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -6141,13 +6177,13 @@
         <v>160166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -6156,13 +6192,13 @@
         <v>249600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,10 +6216,10 @@
         <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -6192,13 +6228,13 @@
         <v>103278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -6207,19 +6243,19 @@
         <v>200283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>454</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1092</v>
@@ -6228,13 +6264,13 @@
         <v>1154659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>914</v>
@@ -6243,13 +6279,13 @@
         <v>917171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>2006</v>
@@ -6258,19 +6294,19 @@
         <v>2071830</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1803</v>
@@ -6279,13 +6315,13 @@
         <v>1892487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>1800</v>
@@ -6294,13 +6330,13 @@
         <v>1911325</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M26" s="7">
         <v>3603</v>
@@ -6309,13 +6345,13 @@
         <v>3803812</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6366,13 @@
         <v>3376753</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3322</v>
@@ -6345,13 +6381,13 @@
         <v>3527929</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6536</v>
@@ -6360,13 +6396,13 @@
         <v>6904682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA7176-00DC-44F1-A43E-941B5EECAA32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4131A53B-58BA-40DD-B7A1-644169874AA6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6407,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6514,13 +6550,13 @@
         <v>82181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>603</v>
@@ -6529,13 +6565,13 @@
         <v>332469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>726</v>
@@ -6544,13 +6580,13 @@
         <v>414650</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6601,13 @@
         <v>21249</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6580,13 +6616,13 @@
         <v>29400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -6595,13 +6631,13 @@
         <v>50649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6652,13 @@
         <v>14843</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -6631,13 +6667,13 @@
         <v>24474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -6646,19 +6682,19 @@
         <v>39316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>127</v>
@@ -6667,13 +6703,13 @@
         <v>118075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -6682,13 +6718,13 @@
         <v>70721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -6697,19 +6733,19 @@
         <v>188796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>396</v>
@@ -6718,13 +6754,13 @@
         <v>302490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
         <v>647</v>
@@ -6733,13 +6769,13 @@
         <v>377596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -6748,13 +6784,13 @@
         <v>680087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6805,13 @@
         <v>538838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1425</v>
@@ -6784,13 +6820,13 @@
         <v>834660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2113</v>
@@ -6799,18 +6835,18 @@
         <v>1373499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6822,13 +6858,13 @@
         <v>59250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
@@ -6837,13 +6873,13 @@
         <v>151879</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -6852,13 +6888,13 @@
         <v>211129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6909,13 @@
         <v>89664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>516</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -6888,13 +6924,13 @@
         <v>137111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
@@ -6903,13 +6939,13 @@
         <v>226776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6960,13 @@
         <v>68937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
@@ -6939,13 +6975,13 @@
         <v>82760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -6954,19 +6990,19 @@
         <v>151697</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>531</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>625</v>
@@ -6975,13 +7011,13 @@
         <v>892726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>639</v>
@@ -6990,13 +7026,13 @@
         <v>678534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
@@ -7005,19 +7041,19 @@
         <v>1571260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1113</v>
@@ -7026,13 +7062,13 @@
         <v>1049501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>1656</v>
@@ -7041,13 +7077,13 @@
         <v>1193601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M14" s="7">
         <v>2769</v>
@@ -7056,13 +7092,13 @@
         <v>2243102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7113,13 @@
         <v>2160078</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2911</v>
@@ -7092,13 +7128,13 @@
         <v>2243886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4901</v>
@@ -7107,18 +7143,18 @@
         <v>4403964</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7133,7 +7169,7 @@
         <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>414</v>
@@ -7145,13 +7181,13 @@
         <v>31609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -7160,13 +7196,13 @@
         <v>50825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7217,13 @@
         <v>23136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7196,13 +7232,13 @@
         <v>43308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7211,13 +7247,13 @@
         <v>66444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7268,13 @@
         <v>9439</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7247,13 +7283,13 @@
         <v>23516</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -7262,19 +7298,19 @@
         <v>32955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>568</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>194</v>
@@ -7283,13 +7319,13 @@
         <v>244712</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7298,13 +7334,13 @@
         <v>259112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
@@ -7313,19 +7349,19 @@
         <v>503823</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>423</v>
@@ -7334,13 +7370,13 @@
         <v>374103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
@@ -7349,13 +7385,13 @@
         <v>353395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>977</v>
@@ -7364,13 +7400,13 @@
         <v>727498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7421,13 @@
         <v>670604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>998</v>
@@ -7400,13 +7436,13 @@
         <v>710941</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1676</v>
@@ -7415,13 +7451,13 @@
         <v>1381545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7474,13 @@
         <v>160647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>942</v>
@@ -7453,13 +7489,13 @@
         <v>515958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>1168</v>
@@ -7468,13 +7504,13 @@
         <v>676605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7525,13 @@
         <v>134049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>320</v>
@@ -7504,13 +7540,13 @@
         <v>209819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>469</v>
@@ -7519,13 +7555,13 @@
         <v>343869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7576,13 @@
         <v>93218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>230</v>
+        <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>606</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
@@ -7555,13 +7591,13 @@
         <v>130750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="M24" s="7">
         <v>306</v>
@@ -7570,19 +7606,19 @@
         <v>223968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>946</v>
@@ -7591,13 +7627,13 @@
         <v>1255512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
@@ -7606,13 +7642,13 @@
         <v>1008367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="M25" s="7">
         <v>1958</v>
@@ -7621,19 +7657,19 @@
         <v>2263879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1932</v>
@@ -7642,13 +7678,13 @@
         <v>1726094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>622</v>
       </c>
       <c r="H26" s="7">
         <v>2857</v>
@@ -7657,13 +7693,13 @@
         <v>1924593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="M26" s="7">
         <v>4789</v>
@@ -7672,13 +7708,13 @@
         <v>3650687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7729,13 @@
         <v>3369520</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5334</v>
@@ -7708,13 +7744,13 @@
         <v>3789488</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8690</v>
@@ -7723,13 +7759,13 @@
         <v>7159008</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7529337E-2321-4BDB-B1A1-8669BF96DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC39D6A-7DD1-4C56-9501-2456C9E95CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9C6EAE-1B99-45E9-84F2-9AF237134C63}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C522A381-067D-4139-9BA1-E91EF7A3348F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="631">
   <si>
     <t>Población según su estado civil en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>Divorciado/a</t>
@@ -107,1825 +107,1831 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Separado/a</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>Casado/a</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>Separado/a</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Soltero/a</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>Casado/a</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2016 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
   </si>
   <si>
     <t>50,79%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>50,99%</t>
   </si>
   <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FF77CE-AC29-4D4E-87AE-6E658D1CA03B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8419756-0DB4-4BF2-8DA3-537E08333C57}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2563,13 +2569,13 @@
         <v>19028</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -2578,13 +2584,13 @@
         <v>35388</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -2593,19 +2599,19 @@
         <v>54416</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>201</v>
@@ -2614,13 +2620,13 @@
         <v>205849</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2629,13 +2635,13 @@
         <v>126833</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -2644,19 +2650,19 @@
         <v>332683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>727</v>
@@ -2665,13 +2671,13 @@
         <v>717935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>792</v>
@@ -2680,13 +2686,13 @@
         <v>798293</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>1519</v>
@@ -2695,13 +2701,13 @@
         <v>1516229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2722,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2731,13 +2737,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2746,18 +2752,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2775,13 @@
         <v>27054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2784,10 +2790,10 @@
         <v>49613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>66</v>
@@ -2802,10 +2808,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2826,13 @@
         <v>25054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2835,13 +2841,13 @@
         <v>37288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -2850,13 +2856,13 @@
         <v>62341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2877,13 @@
         <v>26597</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -2886,13 +2892,13 @@
         <v>45171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2901,19 +2907,19 @@
         <v>71769</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>678</v>
@@ -2922,13 +2928,13 @@
         <v>684734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>537</v>
@@ -2937,13 +2943,13 @@
         <v>528649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1215</v>
@@ -2952,34 +2958,34 @@
         <v>1213383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>900</v>
       </c>
       <c r="D14" s="7">
-        <v>929974</v>
+        <v>929973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -2988,13 +2994,13 @@
         <v>926951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>1796</v>
@@ -3003,13 +3009,13 @@
         <v>1856925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,16 +3027,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3039,13 +3045,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3054,18 +3060,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3083,13 @@
         <v>5503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3092,13 +3098,13 @@
         <v>11362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3107,13 +3113,13 @@
         <v>16865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>4266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3143,13 +3149,13 @@
         <v>12189</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3158,10 +3164,10 @@
         <v>16454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>119</v>
@@ -3197,10 +3203,10 @@
         <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -3209,19 +3215,19 @@
         <v>19593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>210</v>
@@ -3230,13 +3236,13 @@
         <v>217366</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3245,13 +3251,13 @@
         <v>188256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>393</v>
@@ -3260,19 +3266,19 @@
         <v>405621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>303</v>
@@ -3281,13 +3287,13 @@
         <v>319914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -3296,13 +3302,13 @@
         <v>249372</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>536</v>
@@ -3311,13 +3317,13 @@
         <v>569286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3338,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3347,13 +3353,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3362,13 +3368,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3391,13 @@
         <v>112318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
@@ -3400,28 +3406,28 @@
         <v>400874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>494</v>
       </c>
       <c r="N22" s="7">
-        <v>513192</v>
+        <v>513191</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3442,13 @@
         <v>38468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3451,13 +3457,13 @@
         <v>64176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -3466,13 +3472,13 @@
         <v>102644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3493,13 @@
         <v>49985</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -3502,13 +3508,13 @@
         <v>95793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -3517,19 +3523,19 @@
         <v>145779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1089</v>
@@ -3538,13 +3544,13 @@
         <v>1107949</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>848</v>
@@ -3553,13 +3559,13 @@
         <v>843738</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>1937</v>
@@ -3568,19 +3574,19 @@
         <v>1951687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>1930</v>
@@ -3589,13 +3595,13 @@
         <v>1967823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>1921</v>
@@ -3604,28 +3610,28 @@
         <v>1974617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>3851</v>
       </c>
       <c r="N26" s="7">
-        <v>3942440</v>
+        <v>3942439</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,16 +3643,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3655,33 +3661,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33810444-1555-458A-BEC4-F2F1351A7F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF156624-688F-4EC9-A78B-4FF45DB37629}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3824,13 +3830,13 @@
         <v>91277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>333</v>
@@ -3839,13 +3845,13 @@
         <v>354841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>418</v>
@@ -3854,13 +3860,13 @@
         <v>446118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3881,13 @@
         <v>15357</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3890,13 +3896,13 @@
         <v>24267</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3905,13 +3911,13 @@
         <v>39624</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3932,13 @@
         <v>14054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3941,13 +3947,13 @@
         <v>24909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -3956,19 +3962,19 @@
         <v>38964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>183</v>
@@ -3977,13 +3983,13 @@
         <v>192544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3992,13 +3998,13 @@
         <v>109904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -4007,19 +4013,19 @@
         <v>302449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>613</v>
@@ -4028,13 +4034,13 @@
         <v>660516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -4043,13 +4049,13 @@
         <v>823875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>1383</v>
@@ -4058,13 +4064,13 @@
         <v>1484391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4085,13 @@
         <v>973749</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -4094,13 +4100,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -4109,18 +4115,18 @@
         <v>2311546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4132,13 +4138,13 @@
         <v>24176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4147,13 +4153,13 @@
         <v>62527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4162,13 +4168,13 @@
         <v>86703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4189,13 @@
         <v>58075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4198,13 +4204,13 @@
         <v>75152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4213,13 +4219,13 @@
         <v>133227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4240,13 @@
         <v>35832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -4249,13 +4255,13 @@
         <v>49870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4264,19 +4270,19 @@
         <v>85701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>727</v>
@@ -4285,13 +4291,13 @@
         <v>755378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>522</v>
@@ -4300,13 +4306,13 @@
         <v>549336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>1249</v>
@@ -4315,19 +4321,19 @@
         <v>1304714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1020</v>
@@ -4336,13 +4342,13 @@
         <v>1085466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>938</v>
@@ -4351,13 +4357,13 @@
         <v>1019980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1958</v>
@@ -4366,13 +4372,13 @@
         <v>2105445</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4393,13 @@
         <v>1958926</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
@@ -4402,13 +4408,13 @@
         <v>1756864</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3485</v>
@@ -4417,18 +4423,18 @@
         <v>3715790</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4440,13 +4446,13 @@
         <v>7254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4455,13 +4461,13 @@
         <v>7688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4470,13 +4476,13 @@
         <v>14943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4497,13 @@
         <v>10074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4506,13 +4512,13 @@
         <v>16982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4521,13 +4527,13 @@
         <v>27056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4548,13 @@
         <v>4167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4557,13 +4563,13 @@
         <v>4150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4575,16 +4581,16 @@
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>185</v>
@@ -4593,13 +4599,13 @@
         <v>194996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -4608,13 +4614,13 @@
         <v>175400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4623,19 +4629,19 @@
         <v>370396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>234</v>
@@ -4644,13 +4650,13 @@
         <v>263678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -4659,13 +4665,13 @@
         <v>254411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -4674,13 +4680,13 @@
         <v>518090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>480170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4710,13 +4716,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4725,13 +4731,13 @@
         <v>938801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4754,13 @@
         <v>122708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>397</v>
@@ -4763,13 +4769,13 @@
         <v>425056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -4778,13 +4784,13 @@
         <v>547763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4805,13 @@
         <v>83506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
@@ -4814,13 +4820,13 @@
         <v>116401</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>178</v>
@@ -4829,13 +4835,13 @@
         <v>199907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4856,13 @@
         <v>54052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -4865,13 +4871,13 @@
         <v>78929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -4880,19 +4886,19 @@
         <v>132982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1095</v>
@@ -4901,13 +4907,13 @@
         <v>1142918</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -4916,13 +4922,13 @@
         <v>834640</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>1877</v>
@@ -4931,19 +4937,19 @@
         <v>1977558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>1867</v>
@@ -4952,13 +4958,13 @@
         <v>2009660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>1935</v>
@@ -4967,13 +4973,13 @@
         <v>2098266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>3802</v>
@@ -4982,13 +4988,13 @@
         <v>4107926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5009,13 @@
         <v>3412844</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3293</v>
@@ -5018,13 +5024,13 @@
         <v>3553292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6488</v>
@@ -5033,18 +5039,18 @@
         <v>6966136</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5063,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A59AC0E-45E3-44AC-95EF-30A35D591FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC96C6A-0D19-4B1D-8CE9-80B3EB6953F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5187,13 +5193,13 @@
         <v>98607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
@@ -5202,13 +5208,13 @@
         <v>300154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>357</v>
@@ -5217,13 +5223,13 @@
         <v>398761</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5244,13 @@
         <v>12705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -5253,13 +5259,13 @@
         <v>26831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5268,13 +5274,13 @@
         <v>39536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5295,13 @@
         <v>22077</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5304,13 +5310,13 @@
         <v>15356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -5319,19 +5325,19 @@
         <v>37434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>135</v>
@@ -5340,13 +5346,13 @@
         <v>139291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5355,13 +5361,13 @@
         <v>74928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -5370,19 +5376,19 @@
         <v>214219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>486</v>
@@ -5391,13 +5397,13 @@
         <v>481667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -5406,13 +5412,13 @@
         <v>577390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -5421,13 +5427,13 @@
         <v>1059057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5448,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5457,13 +5463,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1654</v>
@@ -5472,18 +5478,18 @@
         <v>1749007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5495,13 +5501,13 @@
         <v>31318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5510,13 +5516,13 @@
         <v>110427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5525,13 +5531,13 @@
         <v>141745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5552,13 @@
         <v>68588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -5561,13 +5567,13 @@
         <v>104615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>156</v>
@@ -5576,13 +5582,13 @@
         <v>173203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5603,13 @@
         <v>56360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -5612,13 +5618,13 @@
         <v>72153</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -5627,19 +5633,19 @@
         <v>128513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>756</v>
@@ -5648,13 +5654,13 @@
         <v>801071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -5663,13 +5669,13 @@
         <v>644446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>1399</v>
@@ -5678,19 +5684,19 @@
         <v>1445517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1051</v>
@@ -5699,13 +5705,13 @@
         <v>1118183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>1002</v>
@@ -5714,13 +5720,13 @@
         <v>1052488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>2053</v>
@@ -5729,13 +5735,13 @@
         <v>2170671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5756,13 @@
         <v>2075520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1904</v>
@@ -5765,13 +5771,13 @@
         <v>1984128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3855</v>
@@ -5780,18 +5786,18 @@
         <v>4059648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5803,13 +5809,13 @@
         <v>13244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5818,13 +5824,13 @@
         <v>25407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5833,13 +5839,13 @@
         <v>38651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5860,13 @@
         <v>8141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5869,13 +5875,13 @@
         <v>28720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5884,13 +5890,13 @@
         <v>36861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5911,13 @@
         <v>18567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>420</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5920,13 +5926,13 @@
         <v>15769</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5935,19 +5941,19 @@
         <v>34336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>201</v>
@@ -5956,13 +5962,13 @@
         <v>214297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -5971,13 +5977,13 @@
         <v>197797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -5986,19 +5992,19 @@
         <v>412094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>266</v>
@@ -6007,13 +6013,13 @@
         <v>292637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -6022,13 +6028,13 @@
         <v>281447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>533</v>
@@ -6037,13 +6043,13 @@
         <v>574084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6064,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -6073,13 +6079,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -6088,13 +6094,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6117,13 @@
         <v>143169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>360</v>
@@ -6126,13 +6132,13 @@
         <v>435988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -6141,13 +6147,13 @@
         <v>579157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6168,13 @@
         <v>89434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -6177,13 +6183,13 @@
         <v>160166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -6192,13 +6198,13 @@
         <v>249600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6219,13 @@
         <v>97004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -6228,13 +6234,13 @@
         <v>103278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -6243,19 +6249,19 @@
         <v>200283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1092</v>
@@ -6306,13 +6312,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>1803</v>
       </c>
       <c r="D26" s="7">
-        <v>1892487</v>
+        <v>1892486</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>468</v>
@@ -6333,10 +6339,10 @@
         <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>3603</v>
@@ -6345,13 +6351,13 @@
         <v>3803812</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,16 +6369,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3376753</v>
+        <v>3376752</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3322</v>
@@ -6381,13 +6387,13 @@
         <v>3527929</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6536</v>
@@ -6396,18 +6402,18 @@
         <v>6904682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6426,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4131A53B-58BA-40DD-B7A1-644169874AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05ABE79-3BC4-4233-939D-1D1DE2845134}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6443,7 +6449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,13 +6556,13 @@
         <v>82181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>603</v>
@@ -6565,13 +6571,13 @@
         <v>332469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>726</v>
@@ -6580,13 +6586,13 @@
         <v>414650</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6607,13 @@
         <v>21249</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6616,13 +6622,13 @@
         <v>29400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -6631,13 +6637,13 @@
         <v>50649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6658,13 @@
         <v>14843</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -6667,13 +6673,13 @@
         <v>24474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -6682,19 +6688,19 @@
         <v>39316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>127</v>
@@ -6703,13 +6709,13 @@
         <v>118075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -6718,13 +6724,13 @@
         <v>70721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -6733,19 +6739,19 @@
         <v>188796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>396</v>
@@ -6754,13 +6760,13 @@
         <v>302490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>647</v>
@@ -6769,13 +6775,13 @@
         <v>377596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -6784,13 +6790,13 @@
         <v>680087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6811,13 @@
         <v>538838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1425</v>
@@ -6820,13 +6826,13 @@
         <v>834660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2113</v>
@@ -6835,18 +6841,18 @@
         <v>1373499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6858,13 +6864,13 @@
         <v>59250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
@@ -6873,13 +6879,13 @@
         <v>151879</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -6888,13 +6894,13 @@
         <v>211129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6915,13 @@
         <v>89664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -6924,13 +6930,13 @@
         <v>137111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
@@ -6939,13 +6945,13 @@
         <v>226776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6966,13 @@
         <v>68937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
@@ -6975,13 +6981,13 @@
         <v>82760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>535</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>529</v>
+        <v>377</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -6990,19 +6996,19 @@
         <v>151697</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>531</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>625</v>
@@ -7011,28 +7017,28 @@
         <v>892726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>639</v>
       </c>
       <c r="I13" s="7">
-        <v>678534</v>
+        <v>678535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
@@ -7041,19 +7047,19 @@
         <v>1571260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1113</v>
@@ -7062,28 +7068,28 @@
         <v>1049501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H14" s="7">
         <v>1656</v>
       </c>
       <c r="I14" s="7">
-        <v>1193601</v>
+        <v>1193602</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>551</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>2769</v>
@@ -7092,13 +7098,13 @@
         <v>2243102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,28 +7119,28 @@
         <v>2160078</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>2243886</v>
+        <v>2243887</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4901</v>
@@ -7143,18 +7149,18 @@
         <v>4403964</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7166,13 +7172,13 @@
         <v>19216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -7181,13 +7187,13 @@
         <v>31609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -7196,13 +7202,13 @@
         <v>50825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7223,13 @@
         <v>23136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7232,13 +7238,13 @@
         <v>43308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7247,13 +7253,13 @@
         <v>66444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7274,13 @@
         <v>9439</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7283,13 +7289,13 @@
         <v>23516</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -7298,19 +7304,19 @@
         <v>32955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>194</v>
@@ -7319,13 +7325,13 @@
         <v>244712</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7334,13 +7340,13 @@
         <v>259112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
@@ -7349,19 +7355,19 @@
         <v>503823</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>423</v>
@@ -7370,13 +7376,13 @@
         <v>374103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
@@ -7385,13 +7391,13 @@
         <v>353395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>977</v>
@@ -7400,13 +7406,13 @@
         <v>727498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7427,13 @@
         <v>670604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>998</v>
@@ -7436,13 +7442,13 @@
         <v>710941</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1676</v>
@@ -7451,13 +7457,13 @@
         <v>1381545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7480,13 @@
         <v>160647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>942</v>
@@ -7489,13 +7495,13 @@
         <v>515958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>1168</v>
@@ -7504,13 +7510,13 @@
         <v>676605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7531,13 @@
         <v>134049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>320</v>
@@ -7540,13 +7546,13 @@
         <v>209819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>600</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>469</v>
@@ -7555,13 +7561,13 @@
         <v>343869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>603</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7582,13 @@
         <v>93218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>604</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>605</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
@@ -7591,13 +7597,13 @@
         <v>130750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>607</v>
+        <v>236</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M24" s="7">
         <v>306</v>
@@ -7606,19 +7612,19 @@
         <v>223968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>946</v>
@@ -7627,13 +7633,13 @@
         <v>1255512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
@@ -7642,13 +7648,13 @@
         <v>1008367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M25" s="7">
         <v>1958</v>
@@ -7657,19 +7663,19 @@
         <v>2263879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>1932</v>
@@ -7678,13 +7684,13 @@
         <v>1726094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
         <v>2857</v>
@@ -7693,13 +7699,13 @@
         <v>1924593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M26" s="7">
         <v>4789</v>
@@ -7708,13 +7714,13 @@
         <v>3650687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7735,13 @@
         <v>3369520</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5334</v>
@@ -7744,13 +7750,13 @@
         <v>3789488</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8690</v>
@@ -7759,18 +7765,18 @@
         <v>7159008</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC39D6A-7DD1-4C56-9501-2456C9E95CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C7F0FD-83B5-4E77-9B84-28CC00183BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C522A381-067D-4139-9BA1-E91EF7A3348F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8DB2464A-62C4-45DA-956D-1EFFEF8121EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="616">
   <si>
     <t>Población según su estado civil en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1475,463 +1475,418 @@
     <t>Población según su estado civil en 2023 (Tasa respuesta: 99,65%)</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8419756-0DB4-4BF2-8DA3-537E08333C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ACCB6E-1A22-46FB-934E-852895B62E9E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2647,7 +2602,7 @@
         <v>329</v>
       </c>
       <c r="N7" s="7">
-        <v>332683</v>
+        <v>332682</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2698,7 +2653,7 @@
         <v>1519</v>
       </c>
       <c r="N8" s="7">
-        <v>1516229</v>
+        <v>1516228</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2749,7 +2704,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2976,7 +2931,7 @@
         <v>900</v>
       </c>
       <c r="D14" s="7">
-        <v>929973</v>
+        <v>929974</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>96</v>
@@ -3027,7 +2982,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3403,7 +3358,7 @@
         <v>379</v>
       </c>
       <c r="I22" s="7">
-        <v>400874</v>
+        <v>400873</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>150</v>
@@ -3418,7 +3373,7 @@
         <v>494</v>
       </c>
       <c r="N22" s="7">
-        <v>513191</v>
+        <v>513192</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>153</v>
@@ -3607,7 +3562,7 @@
         <v>1921</v>
       </c>
       <c r="I26" s="7">
-        <v>1974617</v>
+        <v>1974616</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>180</v>
@@ -3622,7 +3577,7 @@
         <v>3851</v>
       </c>
       <c r="N26" s="7">
-        <v>3942439</v>
+        <v>3942440</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>183</v>
@@ -3643,7 +3598,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3658,7 +3613,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3673,7 +3628,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3706,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF156624-688F-4EC9-A78B-4FF45DB37629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C11CB0-8BE5-4184-8071-FD84C9275245}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +3950,7 @@
         <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>109904</v>
+        <v>109905</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>214</v>
@@ -4097,7 +4052,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -4904,7 +4859,7 @@
         <v>1095</v>
       </c>
       <c r="D25" s="7">
-        <v>1142918</v>
+        <v>1142919</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>322</v>
@@ -4919,7 +4874,7 @@
         <v>782</v>
       </c>
       <c r="I25" s="7">
-        <v>834640</v>
+        <v>834639</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>325</v>
@@ -5006,7 +4961,7 @@
         <v>3195</v>
       </c>
       <c r="D27" s="7">
-        <v>3412844</v>
+        <v>3412845</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5021,7 +4976,7 @@
         <v>3293</v>
       </c>
       <c r="I27" s="7">
-        <v>3553292</v>
+        <v>3553291</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5069,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC96C6A-0D19-4B1D-8CE9-80B3EB6953F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A1308-8B6D-4EE8-93B1-A06D6A842EF3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6091,7 +6046,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6318,7 +6273,7 @@
         <v>1803</v>
       </c>
       <c r="D26" s="7">
-        <v>1892486</v>
+        <v>1892487</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>468</v>
@@ -6369,7 +6324,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3376752</v>
+        <v>3376753</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6432,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05ABE79-3BC4-4233-939D-1D1DE2845134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E924597D-0E27-4B68-8F33-F6A5642DF013}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6553,7 +6508,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="7">
-        <v>82181</v>
+        <v>76812</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>478</v>
@@ -6568,7 +6523,7 @@
         <v>603</v>
       </c>
       <c r="I4" s="7">
-        <v>332469</v>
+        <v>299876</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>481</v>
@@ -6583,7 +6538,7 @@
         <v>726</v>
       </c>
       <c r="N4" s="7">
-        <v>414650</v>
+        <v>376688</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>484</v>
@@ -6604,28 +6559,28 @@
         <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>21249</v>
+        <v>20850</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>29400</v>
+        <v>25067</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>490</v>
@@ -6634,16 +6589,16 @@
         <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>50649</v>
+        <v>45917</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>492</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,46 +6610,46 @@
         <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>14843</v>
+        <v>14230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>24474</v>
+        <v>22473</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>494</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>39316</v>
+        <v>36702</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>497</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,46 +6661,46 @@
         <v>127</v>
       </c>
       <c r="D7" s="7">
-        <v>118075</v>
+        <v>116741</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>70721</v>
+        <v>65361</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
       </c>
       <c r="N7" s="7">
-        <v>188796</v>
+        <v>182102</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,46 +6712,46 @@
         <v>396</v>
       </c>
       <c r="D8" s="7">
-        <v>302490</v>
+        <v>283649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>647</v>
       </c>
       <c r="I8" s="7">
-        <v>377596</v>
+        <v>341586</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
       </c>
       <c r="N8" s="7">
-        <v>680087</v>
+        <v>625234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6763,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="7">
-        <v>538838</v>
+        <v>512281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6823,7 +6778,7 @@
         <v>1425</v>
       </c>
       <c r="I9" s="7">
-        <v>834660</v>
+        <v>754363</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6838,7 +6793,7 @@
         <v>2113</v>
       </c>
       <c r="N9" s="7">
-        <v>1373499</v>
+        <v>1266643</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6861,46 +6816,46 @@
         <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>59250</v>
+        <v>55832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
       </c>
       <c r="I10" s="7">
-        <v>151879</v>
+        <v>138280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
       </c>
       <c r="N10" s="7">
-        <v>211129</v>
+        <v>194112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,46 +6867,46 @@
         <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>89664</v>
+        <v>86274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>137111</v>
+        <v>126419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
       </c>
       <c r="N11" s="7">
-        <v>226776</v>
+        <v>212693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,46 +6918,46 @@
         <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>68937</v>
+        <v>65394</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>532</v>
+        <v>148</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>534</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
       </c>
       <c r="I12" s="7">
-        <v>82760</v>
+        <v>75580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
       </c>
       <c r="N12" s="7">
-        <v>151697</v>
+        <v>140974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>536</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,46 +6969,46 @@
         <v>625</v>
       </c>
       <c r="D13" s="7">
-        <v>892726</v>
+        <v>895139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>639</v>
       </c>
       <c r="I13" s="7">
-        <v>678535</v>
+        <v>663764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
       </c>
       <c r="N13" s="7">
-        <v>1571260</v>
+        <v>1558903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,46 +7020,46 @@
         <v>1113</v>
       </c>
       <c r="D14" s="7">
-        <v>1049501</v>
+        <v>1186063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>1656</v>
       </c>
       <c r="I14" s="7">
-        <v>1193602</v>
+        <v>1228644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>2769</v>
       </c>
       <c r="N14" s="7">
-        <v>2243102</v>
+        <v>2414707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,7 +7071,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160078</v>
+        <v>2288702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7131,7 +7086,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>2243887</v>
+        <v>2232686</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7146,7 +7101,7 @@
         <v>4901</v>
       </c>
       <c r="N15" s="7">
-        <v>4403964</v>
+        <v>4521388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7169,46 +7124,46 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>19216</v>
+        <v>22835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>31609</v>
+        <v>28836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>50825</v>
+        <v>51671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,46 +7175,46 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>23136</v>
+        <v>21983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>43308</v>
+        <v>39691</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>66444</v>
+        <v>61674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,46 +7226,46 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>9439</v>
+        <v>8659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>23516</v>
+        <v>21753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
       </c>
       <c r="N18" s="7">
-        <v>32955</v>
+        <v>30412</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>575</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,46 +7277,46 @@
         <v>194</v>
       </c>
       <c r="D19" s="7">
-        <v>244712</v>
+        <v>236711</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
       </c>
       <c r="I19" s="7">
-        <v>259112</v>
+        <v>240086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
       </c>
       <c r="N19" s="7">
-        <v>503823</v>
+        <v>476797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,46 +7328,46 @@
         <v>423</v>
       </c>
       <c r="D20" s="7">
-        <v>374103</v>
+        <v>354124</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
       </c>
       <c r="I20" s="7">
-        <v>353395</v>
+        <v>327451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>977</v>
       </c>
       <c r="N20" s="7">
-        <v>727498</v>
+        <v>681575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,7 +7379,7 @@
         <v>678</v>
       </c>
       <c r="D21" s="7">
-        <v>670604</v>
+        <v>644312</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7439,7 +7394,7 @@
         <v>998</v>
       </c>
       <c r="I21" s="7">
-        <v>710941</v>
+        <v>657817</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7454,7 +7409,7 @@
         <v>1676</v>
       </c>
       <c r="N21" s="7">
-        <v>1381545</v>
+        <v>1302129</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7477,46 +7432,46 @@
         <v>226</v>
       </c>
       <c r="D22" s="7">
-        <v>160647</v>
+        <v>155478</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>594</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>524</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>942</v>
       </c>
       <c r="I22" s="7">
-        <v>515958</v>
+        <v>466992</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>1168</v>
       </c>
       <c r="N22" s="7">
-        <v>676605</v>
+        <v>622471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,46 +7483,46 @@
         <v>149</v>
       </c>
       <c r="D23" s="7">
-        <v>134049</v>
+        <v>129107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>602</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>603</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>320</v>
       </c>
       <c r="I23" s="7">
-        <v>209819</v>
+        <v>191177</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>606</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>592</v>
       </c>
       <c r="M23" s="7">
         <v>469</v>
       </c>
       <c r="N23" s="7">
-        <v>343869</v>
+        <v>320284</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>607</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +7534,46 @@
         <v>103</v>
       </c>
       <c r="D24" s="7">
-        <v>93218</v>
+        <v>88282</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
       </c>
       <c r="I24" s="7">
-        <v>130750</v>
+        <v>119806</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>306</v>
       </c>
       <c r="N24" s="7">
-        <v>223968</v>
+        <v>208088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,46 +7585,46 @@
         <v>946</v>
       </c>
       <c r="D25" s="7">
-        <v>1255512</v>
+        <v>1248591</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
       </c>
       <c r="I25" s="7">
-        <v>1008367</v>
+        <v>969211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>1958</v>
       </c>
       <c r="N25" s="7">
-        <v>2263879</v>
+        <v>2217802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,46 +7636,46 @@
         <v>1932</v>
       </c>
       <c r="D26" s="7">
-        <v>1726094</v>
+        <v>1823836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>2857</v>
       </c>
       <c r="I26" s="7">
-        <v>1924593</v>
+        <v>1897680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>4789</v>
       </c>
       <c r="N26" s="7">
-        <v>3650687</v>
+        <v>3721517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,7 +7687,7 @@
         <v>3356</v>
       </c>
       <c r="D27" s="7">
-        <v>3369520</v>
+        <v>3445294</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7747,7 +7702,7 @@
         <v>5334</v>
       </c>
       <c r="I27" s="7">
-        <v>3789488</v>
+        <v>3644866</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7762,7 +7717,7 @@
         <v>8690</v>
       </c>
       <c r="N27" s="7">
-        <v>7159008</v>
+        <v>7090161</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
